--- a/Scripts/Policies/Tags/Tags-Subscriptions.xlsx
+++ b/Scripts/Policies/Tags/Tags-Subscriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repo\Azure\Scripts\Policies\Tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EDCF2-34EB-4F54-B868-4098C490ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D374EBD-022A-4D01-8A40-C1C9225AD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TagName</t>
   </si>
@@ -33,22 +33,13 @@
     <t>TagValue</t>
   </si>
   <si>
-    <t>FinOps</t>
-  </si>
-  <si>
-    <t>FinOps2</t>
-  </si>
-  <si>
     <t>SubscriptionName</t>
   </si>
   <si>
     <t>MCAPS-MarcusGaspar</t>
   </si>
   <si>
-    <t>Value04a</t>
-  </si>
-  <si>
-    <t>Value04b</t>
+    <t>FinOps3</t>
   </si>
 </sst>
 </file>
@@ -366,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +370,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -390,24 +381,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Policies/Tags/Tags-Subscriptions.xlsx
+++ b/Scripts/Policies/Tags/Tags-Subscriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repo\Azure\Scripts\Policies\Tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D374EBD-022A-4D01-8A40-C1C9225AD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356150F2-8DFA-4ECD-A5AA-5459D73E92AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>TagName</t>
   </si>
@@ -36,10 +36,13 @@
     <t>SubscriptionName</t>
   </si>
   <si>
-    <t>MCAPS-MarcusGaspar</t>
-  </si>
-  <si>
     <t>FinOps3</t>
+  </si>
+  <si>
+    <t>Default - Microsoft Azure Sponsorship 2</t>
+  </si>
+  <si>
+    <t>HPC subscription</t>
   </si>
 </sst>
 </file>
@@ -357,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -381,10 +384,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
